--- a/workfile/锐安项目文档/胡登登工作交接/华正锐安项目问题清单0114.xlsx
+++ b/workfile/锐安项目文档/胡登登工作交接/华正锐安项目问题清单0114.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="移动端问题" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BI问题!$A$1:$K$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">移动端问题!$A$1:$K$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">移动端问题!$A$1:$K$118</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -2135,7 +2135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -2238,13 +2238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2300,7 +2300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2333,18 +2333,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2373,30 +2361,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2443,17 +2408,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2494,11 +2459,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2512,7 +2512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2801,27 +2801,27 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="25.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="66.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2885,11 +2885,11 @@
       <c r="J2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="63" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2918,11 +2918,11 @@
       <c r="J3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="63" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2951,42 +2951,42 @@
       <c r="J4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="63" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="5" spans="1:11" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="79">
         <v>43655</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8" t="s">
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="80" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3114,38 +3114,38 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="10" spans="1:11" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="79">
         <v>43653</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7">
+      <c r="H10" s="79"/>
+      <c r="I10" s="79">
         <v>43654</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="80"/>
+    </row>
+    <row r="11" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" customFormat="1" ht="93.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" customFormat="1" ht="109.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" customFormat="1" ht="62.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" customFormat="1" ht="46.8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3852,98 +3852,98 @@
       </c>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+    <row r="34" spans="1:11" s="81" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="78">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="E34" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="79">
         <v>43672</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7">
+      <c r="H34" s="79"/>
+      <c r="I34" s="79">
         <v>43673</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+      <c r="K34" s="80"/>
+    </row>
+    <row r="35" spans="1:11" s="81" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="82">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="79">
         <v>43672</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7">
+      <c r="H35" s="79"/>
+      <c r="I35" s="79">
         <v>43673</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="K35" s="80"/>
+    </row>
+    <row r="36" spans="1:11" s="86" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78">
         <v>35</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="25" t="s">
+      <c r="E36" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="85">
         <v>43672</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="27" t="s">
+      <c r="H36" s="85"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="80"/>
+    </row>
+    <row r="37" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -4160,23 +4160,23 @@
       </c>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="28" t="s">
+      <c r="E44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="24" t="s">
         <v>122</v>
       </c>
       <c r="G44" s="7">
@@ -4186,30 +4186,30 @@
       <c r="I44" s="7">
         <v>43761</v>
       </c>
-      <c r="J44" s="28" t="s">
+      <c r="J44" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="K44" s="28" t="s">
+      <c r="K44" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" customFormat="1" ht="46.8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="28" t="s">
+      <c r="E45" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>122</v>
       </c>
       <c r="G45" s="7">
@@ -4219,30 +4219,30 @@
       <c r="I45" s="7">
         <v>43761</v>
       </c>
-      <c r="J45" s="28" t="s">
+      <c r="J45" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K45" s="28" t="s">
+      <c r="K45" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:11" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="29" t="s">
+      <c r="E46" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G46" s="7">
@@ -4252,30 +4252,30 @@
       <c r="I46" s="7">
         <v>43752</v>
       </c>
-      <c r="J46" s="30" t="s">
+      <c r="J46" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="29" t="s">
+      <c r="E47" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G47" s="7">
@@ -4285,30 +4285,30 @@
       <c r="I47" s="7">
         <v>43752</v>
       </c>
-      <c r="J47" s="30" t="s">
+      <c r="J47" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="29" t="s">
+      <c r="E48" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G48" s="7">
@@ -4318,28 +4318,28 @@
       <c r="I48" s="7">
         <v>43754</v>
       </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="31" t="s">
+      <c r="J48" s="26"/>
+      <c r="K48" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="29" t="s">
+      <c r="E49" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="7">
@@ -4349,30 +4349,30 @@
       <c r="I49" s="7">
         <v>43749</v>
       </c>
-      <c r="J49" s="30" t="s">
+      <c r="J49" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:11" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="29" t="s">
+      <c r="E50" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G50" s="7">
@@ -4382,30 +4382,30 @@
       <c r="I50" s="7">
         <v>43753</v>
       </c>
-      <c r="J50" s="30" t="s">
+      <c r="J50" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="27" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:11" customFormat="1" ht="46.8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="29" t="s">
+      <c r="E51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G51" s="7">
@@ -4415,30 +4415,30 @@
       <c r="I51" s="7">
         <v>43752</v>
       </c>
-      <c r="J51" s="30" t="s">
+      <c r="J51" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="27" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:11" customFormat="1" ht="62.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="29" t="s">
+      <c r="E52" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G52" s="7">
@@ -4448,30 +4448,30 @@
       <c r="I52" s="7">
         <v>43761</v>
       </c>
-      <c r="J52" s="35" t="s">
+      <c r="J52" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="K52" s="36" t="s">
+      <c r="K52" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:11" customFormat="1" ht="46.8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="29" t="s">
+      <c r="E53" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G53" s="7">
@@ -4481,21 +4481,21 @@
       <c r="I53" s="7">
         <v>43761</v>
       </c>
-      <c r="J53" s="35" t="s">
+      <c r="J53" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="K53" s="36" t="s">
+      <c r="K53" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D54" s="12" t="s">
@@ -4504,7 +4504,7 @@
       <c r="E54" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G54" s="7">
@@ -4514,142 +4514,142 @@
       <c r="I54" s="7">
         <v>43759</v>
       </c>
-      <c r="J54" s="37" t="s">
+      <c r="J54" s="33" t="s">
         <v>145</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
+    <row r="55" spans="1:11" s="86" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="82">
         <v>54</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="40" t="s">
+      <c r="E55" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="G55" s="41">
+      <c r="G55" s="85">
         <v>43749</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="43" t="s">
+      <c r="H55" s="85"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="K55" s="44" t="s">
+      <c r="K55" s="89" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+    <row r="56" spans="1:11" s="86" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="78">
         <v>55</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="46" t="s">
+      <c r="E56" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="47">
+      <c r="G56" s="85">
         <v>43749</v>
       </c>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="30" t="s">
+      <c r="H56" s="85"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="89" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:11" customFormat="1" ht="46.8" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" customFormat="1" ht="46.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="51" t="s">
+      <c r="E57" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G57" s="52">
+      <c r="G57" s="39">
         <v>43773</v>
       </c>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52">
+      <c r="H57" s="39"/>
+      <c r="I57" s="39">
         <v>43778</v>
       </c>
-      <c r="J57" s="49" t="s">
+      <c r="J57" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="K57" s="53" t="s">
+      <c r="K57" s="40" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:11" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="51" t="s">
+      <c r="E58" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="52">
+      <c r="G58" s="39">
         <v>43773</v>
       </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52">
+      <c r="H58" s="39"/>
+      <c r="I58" s="39">
         <v>43776</v>
       </c>
-      <c r="J58" s="49" t="s">
+      <c r="J58" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="K58" s="49" t="s">
+      <c r="K58" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -4790,14 +4790,14 @@
       </c>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="41" t="s">
         <v>170</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -4819,14 +4819,14 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>64</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="41" t="s">
         <v>170</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -4848,14 +4848,14 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -4874,19 +4874,19 @@
       <c r="I66" s="7">
         <v>43704</v>
       </c>
-      <c r="J66" s="54" t="s">
+      <c r="J66" s="41" t="s">
         <v>172</v>
       </c>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -4905,19 +4905,19 @@
       <c r="I67" s="7">
         <v>43719</v>
       </c>
-      <c r="J67" s="54" t="s">
+      <c r="J67" s="41" t="s">
         <v>176</v>
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="41" t="s">
         <v>178</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -4936,13 +4936,13 @@
       <c r="I68" s="7">
         <v>43733</v>
       </c>
-      <c r="J68" s="54" t="s">
+      <c r="J68" s="41" t="s">
         <v>179</v>
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="54">
+    <row r="69" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="41">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -4968,7 +4968,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4993,8 +4993,8 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="54">
+    <row r="71" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="41">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -5018,8 +5018,8 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="54">
+    <row r="72" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="41">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -5045,47 +5045,47 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="54">
+    <row r="73" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="41">
         <v>72</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="E73" s="54" t="s">
+      <c r="E73" s="41" t="s">
         <v>296</v>
       </c>
       <c r="F73" s="4"/>
-      <c r="G73" s="56">
+      <c r="G73" s="43">
         <v>43803</v>
       </c>
-      <c r="H73" s="56"/>
+      <c r="H73" s="43"/>
       <c r="I73" s="7">
         <v>43803</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="54">
+    <row r="74" spans="1:11" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="41">
         <v>73</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="41" t="s">
         <v>307</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E74" s="46" t="s">
+      <c r="E74" s="34" t="s">
         <v>419</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -5100,12 +5100,12 @@
       <c r="I74" s="6">
         <v>43822</v>
       </c>
-      <c r="J74" s="59" t="s">
+      <c r="J74" s="46" t="s">
         <v>321</v>
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -5113,16 +5113,16 @@
         <v>302</v>
       </c>
       <c r="C75" s="12"/>
-      <c r="D75" s="58"/>
+      <c r="D75" s="45"/>
       <c r="E75" s="12" t="s">
         <v>303</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="48">
+      <c r="G75" s="35">
         <v>43797</v>
       </c>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48">
+      <c r="H75" s="35"/>
+      <c r="I75" s="35">
         <v>43804</v>
       </c>
       <c r="J75" s="12" t="s">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="1" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -5138,16 +5138,16 @@
         <v>304</v>
       </c>
       <c r="C76" s="12"/>
-      <c r="D76" s="58"/>
+      <c r="D76" s="45"/>
       <c r="E76" s="12" t="s">
         <v>305</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="48">
+      <c r="G76" s="35">
         <v>43805</v>
       </c>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48">
+      <c r="H76" s="35"/>
+      <c r="I76" s="35">
         <v>43805</v>
       </c>
       <c r="J76" s="12" t="s">
@@ -5155,47 +5155,47 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" s="69" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="70">
+    <row r="77" spans="1:11" s="56" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="57">
         <v>76</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="D77" s="72" t="s">
+      <c r="D77" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="E77" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="72" t="s">
+      <c r="E77" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="G77" s="74">
+      <c r="G77" s="61">
         <v>43805</v>
       </c>
-      <c r="H77" s="74"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="71" t="s">
+      <c r="H77" s="61"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="K77" s="70"/>
-    </row>
-    <row r="78" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="54">
+      <c r="K77" s="57"/>
+    </row>
+    <row r="78" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="41">
         <v>77</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="41" t="s">
         <v>312</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D78" s="57"/>
-      <c r="E78" s="54" t="s">
+      <c r="D78" s="44"/>
+      <c r="E78" s="41" t="s">
         <v>319</v>
       </c>
       <c r="F78" s="4"/>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>315</v>
       </c>
       <c r="D79" s="19"/>
-      <c r="E79" s="60" t="s">
+      <c r="E79" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F79" s="19" t="s">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="D80" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -5269,7 +5269,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="D81" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F81" s="4" t="s">
@@ -5298,11 +5298,11 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="54">
+    <row r="82" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="41">
         <v>81</v>
       </c>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="41" t="s">
         <v>320</v>
       </c>
       <c r="C82" s="4"/>
@@ -5327,11 +5327,11 @@
       </c>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="54">
+    <row r="83" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="41">
         <v>82</v>
       </c>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="41" t="s">
         <v>328</v>
       </c>
       <c r="C83" s="4"/>
@@ -5356,8 +5356,8 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="54">
+    <row r="84" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="41">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -5385,11 +5385,11 @@
       </c>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="54">
+    <row r="85" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="41">
         <v>84</v>
       </c>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="41" t="s">
         <v>337</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="D86" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E86" s="57" t="s">
+      <c r="E86" s="44" t="s">
         <v>55</v>
       </c>
       <c r="F86" s="4" t="s">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5459,22 +5459,22 @@
       <c r="E87" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="83" t="s">
+      <c r="F87" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="G87" s="80">
+      <c r="G87" s="67">
         <v>43809</v>
       </c>
-      <c r="H87" s="80">
+      <c r="H87" s="67">
         <v>43832</v>
       </c>
-      <c r="I87" s="80">
+      <c r="I87" s="67">
         <v>43832</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5490,21 +5490,21 @@
       <c r="E88" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F88" s="83" t="s">
+      <c r="F88" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="G88" s="80">
+      <c r="G88" s="67">
         <v>43809</v>
       </c>
-      <c r="H88" s="80">
+      <c r="H88" s="67">
         <v>43844</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" ht="19.8" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="54">
+    <row r="89" spans="1:11" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="41">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -5519,16 +5519,16 @@
       <c r="E89" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="F89" s="83" t="s">
+      <c r="F89" s="70" t="s">
         <v>348</v>
       </c>
-      <c r="G89" s="80">
+      <c r="G89" s="67">
         <v>43809</v>
       </c>
-      <c r="H89" s="80">
+      <c r="H89" s="67">
         <v>43827</v>
       </c>
-      <c r="I89" s="80">
+      <c r="I89" s="67">
         <v>43829</v>
       </c>
       <c r="J89" s="4" t="s">
@@ -5536,18 +5536,18 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="54">
+    <row r="90" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="41">
         <v>89</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B90" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="41" t="s">
         <v>351</v>
       </c>
       <c r="D90" s="4"/>
-      <c r="E90" s="55" t="s">
+      <c r="E90" s="42" t="s">
         <v>55</v>
       </c>
       <c r="F90" s="4"/>
@@ -5563,18 +5563,18 @@
       </c>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="54">
+    <row r="91" spans="1:11" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="41">
         <v>90</v>
       </c>
-      <c r="B91" s="54" t="s">
+      <c r="B91" s="41" t="s">
         <v>354</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D91" s="4"/>
-      <c r="E91" s="57" t="s">
+      <c r="E91" s="44" t="s">
         <v>361</v>
       </c>
       <c r="F91" s="4" t="s">
@@ -5592,14 +5592,14 @@
       </c>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="54">
+    <row r="92" spans="1:11" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="41">
         <v>91</v>
       </c>
-      <c r="B92" s="54" t="s">
+      <c r="B92" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="54" t="s">
+      <c r="C92" s="41" t="s">
         <v>364</v>
       </c>
       <c r="D92" s="4"/>
@@ -5611,14 +5611,14 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" ht="30.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="54">
+    <row r="93" spans="1:11" ht="30.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="41">
         <v>92</v>
       </c>
-      <c r="B93" s="54" t="s">
+      <c r="B93" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="46" t="s">
         <v>370</v>
       </c>
       <c r="D93" s="4"/>
@@ -5635,19 +5635,19 @@
       <c r="I93" s="7">
         <v>43812</v>
       </c>
-      <c r="J93" s="59" t="s">
+      <c r="J93" s="46" t="s">
         <v>375</v>
       </c>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="54">
+    <row r="94" spans="1:11" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="41">
         <v>93</v>
       </c>
-      <c r="B94" s="54" t="s">
+      <c r="B94" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="41" t="s">
         <v>374</v>
       </c>
       <c r="D94" s="4"/>
@@ -5667,7 +5667,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" ht="19.8" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" ht="19.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5728,12 +5728,12 @@
       <c r="I96" s="6">
         <v>43825</v>
       </c>
-      <c r="J96" s="79" t="s">
+      <c r="J96" s="66" t="s">
         <v>423</v>
       </c>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -5752,19 +5752,19 @@
       <c r="F97" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G97" s="77">
+      <c r="G97" s="64">
         <v>43818</v>
       </c>
-      <c r="H97" s="77">
+      <c r="H97" s="64">
         <v>43818</v>
       </c>
-      <c r="I97" s="77">
+      <c r="I97" s="64">
         <v>43818</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -5780,24 +5780,24 @@
       <c r="E98" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="83" t="s">
+      <c r="F98" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G98" s="56">
+      <c r="G98" s="43">
         <v>43820</v>
       </c>
-      <c r="H98" s="80">
+      <c r="H98" s="67">
         <v>43829</v>
       </c>
-      <c r="I98" s="56">
+      <c r="I98" s="43">
         <v>43821</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="K98" s="75"/>
-    </row>
-    <row r="99" spans="1:11" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K98" s="62"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -5813,22 +5813,22 @@
       <c r="E99" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F99" s="83" t="s">
+      <c r="F99" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="56">
+      <c r="G99" s="43">
         <v>43823</v>
       </c>
-      <c r="H99" s="56">
+      <c r="H99" s="43">
         <v>43823</v>
       </c>
-      <c r="I99" s="56">
+      <c r="I99" s="43">
         <v>43823</v>
       </c>
-      <c r="J99" s="75"/>
-      <c r="K99" s="75"/>
-    </row>
-    <row r="100" spans="1:11" ht="19.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+    </row>
+    <row r="100" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -5844,22 +5844,22 @@
       <c r="E100" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F100" s="83" t="s">
+      <c r="F100" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G100" s="56">
+      <c r="G100" s="43">
         <v>43823</v>
       </c>
-      <c r="H100" s="56">
+      <c r="H100" s="43">
         <v>43823</v>
       </c>
-      <c r="I100" s="56">
+      <c r="I100" s="43">
         <v>43823</v>
       </c>
-      <c r="J100" s="75"/>
-      <c r="K100" s="75"/>
-    </row>
-    <row r="101" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J100" s="62"/>
+      <c r="K100" s="62"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -5871,16 +5871,16 @@
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="81"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="81"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="4" t="s">
         <v>424</v>
       </c>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" s="11" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -5896,22 +5896,22 @@
       <c r="E102" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="F102" s="81" t="s">
+      <c r="F102" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="G102" s="56">
+      <c r="G102" s="43">
         <v>43824</v>
       </c>
-      <c r="H102" s="56">
+      <c r="H102" s="43">
         <v>43825</v>
       </c>
-      <c r="I102" s="80">
+      <c r="I102" s="67">
         <v>43829</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" ht="19.8" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -5923,22 +5923,22 @@
       <c r="E103" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F103" s="81" t="s">
+      <c r="F103" s="68" t="s">
         <v>455</v>
       </c>
-      <c r="G103" s="56">
+      <c r="G103" s="43">
         <v>43825</v>
       </c>
-      <c r="H103" s="80">
+      <c r="H103" s="67">
         <v>43837</v>
       </c>
-      <c r="I103" s="82"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="K103" s="75"/>
-    </row>
-    <row r="104" spans="1:11" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K103" s="62"/>
+    </row>
+    <row r="104" spans="1:11" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -5951,25 +5951,25 @@
       <c r="D104" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E104" s="78" t="s">
+      <c r="E104" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="F104" s="81" t="s">
+      <c r="F104" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="G104" s="80">
+      <c r="G104" s="67">
         <v>43826</v>
       </c>
-      <c r="H104" s="80">
+      <c r="H104" s="67">
         <v>43826</v>
       </c>
-      <c r="I104" s="80">
+      <c r="I104" s="67">
         <v>43826</v>
       </c>
       <c r="J104" s="4"/>
-      <c r="K104" s="75"/>
-    </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K104" s="62"/>
+    </row>
+    <row r="105" spans="1:11" s="11" customFormat="1" ht="37.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -5982,25 +5982,25 @@
       <c r="D105" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="E105" s="78" t="s">
+      <c r="E105" s="65" t="s">
         <v>448</v>
       </c>
-      <c r="F105" s="81" t="s">
+      <c r="F105" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="G105" s="80">
+      <c r="G105" s="67">
         <v>43826</v>
       </c>
-      <c r="H105" s="80">
+      <c r="H105" s="67">
         <v>43827</v>
       </c>
-      <c r="I105" s="80">
+      <c r="I105" s="67">
         <v>43829</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" ht="40.799999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" ht="40.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6013,25 +6013,25 @@
       <c r="D106" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E106" s="78" t="s">
+      <c r="E106" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="F106" s="81" t="s">
+      <c r="F106" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="80">
+      <c r="G106" s="67">
         <v>43829</v>
       </c>
-      <c r="H106" s="80">
+      <c r="H106" s="67">
         <v>43829</v>
       </c>
-      <c r="I106" s="80">
+      <c r="I106" s="67">
         <v>43829</v>
       </c>
       <c r="J106" s="4"/>
-      <c r="K106" s="75"/>
-    </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" ht="33.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K106" s="62"/>
+    </row>
+    <row r="107" spans="1:11" s="11" customFormat="1" ht="33.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6044,25 +6044,25 @@
       <c r="D107" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E107" s="78" t="s">
+      <c r="E107" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="F107" s="81" t="s">
+      <c r="F107" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="80">
+      <c r="G107" s="67">
         <v>43829</v>
       </c>
-      <c r="H107" s="80">
+      <c r="H107" s="67">
         <v>43830</v>
       </c>
-      <c r="I107" s="80">
+      <c r="I107" s="67">
         <v>43830</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" s="11" customFormat="1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6075,19 +6075,19 @@
       <c r="D108" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="78" t="s">
+      <c r="E108" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="F108" s="81" t="s">
+      <c r="F108" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G108" s="80">
+      <c r="G108" s="67">
         <v>43829</v>
       </c>
-      <c r="H108" s="80">
+      <c r="H108" s="67">
         <v>43830</v>
       </c>
-      <c r="I108" s="80">
+      <c r="I108" s="67">
         <v>43830</v>
       </c>
       <c r="J108" s="4" t="s">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" s="11" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" s="11" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6111,22 +6111,22 @@
       <c r="E109" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="F109" s="81" t="s">
+      <c r="F109" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="80">
+      <c r="G109" s="67">
         <v>43830</v>
       </c>
-      <c r="H109" s="80">
+      <c r="H109" s="67">
         <v>43832</v>
       </c>
-      <c r="I109" s="80">
+      <c r="I109" s="67">
         <v>43833</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" ht="29.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="29.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6142,22 +6142,22 @@
       <c r="E110" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="F110" s="83" t="s">
+      <c r="F110" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="G110" s="80">
+      <c r="G110" s="67">
         <v>43831</v>
       </c>
-      <c r="H110" s="80">
+      <c r="H110" s="67">
         <v>43832</v>
       </c>
-      <c r="I110" s="80">
+      <c r="I110" s="67">
         <v>43833</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11" ht="25.8" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="25.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6167,13 +6167,13 @@
       <c r="C111" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D111" s="78" t="s">
+      <c r="D111" s="65" t="s">
         <v>463</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="F111" s="81" t="s">
+      <c r="F111" s="68" t="s">
         <v>465</v>
       </c>
       <c r="G111" s="7">
@@ -6188,7 +6188,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6198,13 +6198,13 @@
       <c r="C112" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="D112" s="78" t="s">
+      <c r="D112" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F112" s="81" t="s">
+      <c r="F112" s="68" t="s">
         <v>19</v>
       </c>
       <c r="G112" s="7">
@@ -6223,7 +6223,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="11" customFormat="1" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" s="11" customFormat="1" ht="26.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6233,13 +6233,13 @@
       <c r="C113" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D113" s="78" t="s">
+      <c r="D113" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F113" s="81" t="s">
+      <c r="F113" s="68" t="s">
         <v>19</v>
       </c>
       <c r="G113" s="7">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" spans="1:11" s="11" customFormat="1" ht="30.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" s="11" customFormat="1" ht="30.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6266,13 +6266,13 @@
       <c r="C114" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D114" s="78" t="s">
+      <c r="D114" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="F114" s="81" t="s">
+      <c r="F114" s="68" t="s">
         <v>19</v>
       </c>
       <c r="G114" s="7">
@@ -6287,23 +6287,23 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" s="11" customFormat="1" ht="28.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="84">
+    <row r="115" spans="1:11" s="11" customFormat="1" ht="28.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="71">
         <v>114</v>
       </c>
-      <c r="B115" s="84" t="s">
+      <c r="B115" s="71" t="s">
         <v>475</v>
       </c>
-      <c r="C115" s="84" t="s">
+      <c r="C115" s="71" t="s">
         <v>476</v>
       </c>
-      <c r="D115" s="78" t="s">
+      <c r="D115" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E115" s="85" t="s">
+      <c r="E115" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F115" s="81" t="s">
+      <c r="F115" s="68" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="7">
@@ -6315,10 +6315,10 @@
       <c r="I115" s="7">
         <v>43838</v>
       </c>
-      <c r="J115" s="84"/>
-      <c r="K115" s="84"/>
-    </row>
-    <row r="116" spans="1:11" s="11" customFormat="1" ht="22.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J115" s="71"/>
+      <c r="K115" s="71"/>
+    </row>
+    <row r="116" spans="1:11" s="11" customFormat="1" ht="22.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="E116" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F116" s="81" t="s">
+      <c r="F116" s="68" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="7">
@@ -6353,38 +6353,38 @@
         <v>481</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="86">
+    <row r="117" spans="1:11" s="11" customFormat="1" ht="22.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="73">
         <v>116</v>
       </c>
-      <c r="B117" s="86" t="s">
+      <c r="B117" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="C117" s="86" t="s">
+      <c r="C117" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="D117" s="87" t="s">
+      <c r="D117" s="74" t="s">
         <v>500</v>
       </c>
-      <c r="E117" s="87" t="s">
+      <c r="E117" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="F117" s="87" t="s">
+      <c r="F117" s="74" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="88">
+      <c r="G117" s="75">
         <v>43839</v>
       </c>
-      <c r="H117" s="88">
+      <c r="H117" s="75">
         <v>43847</v>
       </c>
-      <c r="I117" s="86"/>
-      <c r="J117" s="86" t="s">
+      <c r="I117" s="73"/>
+      <c r="J117" s="73" t="s">
         <v>502</v>
       </c>
-      <c r="K117" s="86"/>
-    </row>
-    <row r="118" spans="1:11" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K117" s="73"/>
+    </row>
+    <row r="118" spans="1:11" s="4" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6410,15 +6410,13 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F123" s="90"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F123" s="77"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K117">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="处理中"/>
-      </filters>
+  <autoFilter ref="A1:K118">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6440,19 +6438,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="73.88671875" customWidth="1"/>
-    <col min="7" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="73.875" customWidth="1"/>
+    <col min="7" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>180</v>
       </c>
@@ -6487,7 +6485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6510,7 +6508,7 @@
         <v>43627</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="61">
+      <c r="I2" s="48">
         <v>43627</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -6518,7 +6516,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6541,13 +6539,13 @@
         <v>43627</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="61">
+      <c r="I3" s="48">
         <v>43627</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6570,13 +6568,13 @@
         <v>43626</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="61">
+      <c r="I4" s="48">
         <v>43627</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6599,13 +6597,13 @@
         <v>43626</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="61">
+      <c r="I5" s="48">
         <v>43627</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6628,13 +6626,13 @@
         <v>43626</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="61">
+      <c r="I6" s="48">
         <v>43627</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -6657,13 +6655,13 @@
         <v>43627</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="61">
+      <c r="I7" s="48">
         <v>43627</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6686,13 +6684,13 @@
         <v>43627</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="61">
+      <c r="I8" s="48">
         <v>43627</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6715,13 +6713,13 @@
         <v>43627</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="61">
+      <c r="I9" s="48">
         <v>43628</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -6744,7 +6742,7 @@
         <v>43628</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="61">
+      <c r="I10" s="48">
         <v>43628</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -6752,7 +6750,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -6775,7 +6773,7 @@
         <v>43628</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="61">
+      <c r="I11" s="48">
         <v>43628</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -6783,7 +6781,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -6806,13 +6804,13 @@
         <v>43628</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="61">
+      <c r="I12" s="48">
         <v>43628</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -6835,13 +6833,13 @@
         <v>43629</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="61">
+      <c r="I13" s="48">
         <v>43629</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -6864,13 +6862,13 @@
         <v>43630</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="61">
+      <c r="I14" s="48">
         <v>43630</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -6893,7 +6891,7 @@
         <v>43630</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="61">
+      <c r="I15" s="48">
         <v>43630</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -6901,7 +6899,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -6924,7 +6922,7 @@
         <v>43630</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="61">
+      <c r="I16" s="48">
         <v>43630</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -6932,7 +6930,7 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -6955,7 +6953,7 @@
         <v>43630</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="61">
+      <c r="I17" s="48">
         <v>43630</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -6963,7 +6961,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -6986,7 +6984,7 @@
         <v>43630</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="61">
+      <c r="I18" s="48">
         <v>43630</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -6994,7 +6992,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -7017,7 +7015,7 @@
         <v>43630</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="61">
+      <c r="I19" s="48">
         <v>43630</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -7025,7 +7023,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7048,7 +7046,7 @@
         <v>43630</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="61">
+      <c r="I20" s="48">
         <v>43630</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -7056,7 +7054,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -7079,7 +7077,7 @@
         <v>43630</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="61">
+      <c r="I21" s="48">
         <v>43630</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -7087,7 +7085,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7110,7 +7108,7 @@
         <v>43630</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="61">
+      <c r="I22" s="48">
         <v>43630</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -7118,7 +7116,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7137,11 +7135,11 @@
       <c r="F23" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="48">
         <v>43654</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61">
+      <c r="H23" s="48"/>
+      <c r="I23" s="48">
         <v>43657</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -7149,7 +7147,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -7168,11 +7166,11 @@
       <c r="F24" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="48">
         <v>43654</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61">
+      <c r="H24" s="48"/>
+      <c r="I24" s="48">
         <v>43658</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -7180,7 +7178,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -7199,11 +7197,11 @@
       <c r="F25" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="48">
         <v>43654</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61">
+      <c r="H25" s="48"/>
+      <c r="I25" s="48">
         <v>43657</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -7211,7 +7209,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -7230,17 +7228,17 @@
       <c r="F26" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="48">
         <v>43655</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="4" t="s">
         <v>240</v>
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -7259,17 +7257,17 @@
       <c r="F27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="48">
         <v>43655</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="4" t="s">
         <v>240</v>
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -7288,24 +7286,24 @@
       <c r="F28" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="48">
         <v>43655</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="4" t="s">
         <v>240</v>
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="46" t="s">
         <v>244</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -7317,17 +7315,17 @@
       <c r="F29" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="48">
         <v>43655</v>
       </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="4" t="s">
         <v>245</v>
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -7350,7 +7348,7 @@
         <v>43657</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="61">
+      <c r="I30" s="48">
         <v>43658</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -7358,7 +7356,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -7381,7 +7379,7 @@
         <v>43657</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="61">
+      <c r="I31" s="48">
         <v>43658</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -7389,379 +7387,379 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="54" t="s">
+      <c r="E32" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="41" t="s">
         <v>199</v>
       </c>
       <c r="G32" s="7">
         <v>43661</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="62">
+      <c r="I32" s="49">
         <v>43662</v>
       </c>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="41" t="s">
         <v>253</v>
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="54" t="s">
+      <c r="E33" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="64">
+      <c r="G33" s="51">
         <v>43665</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65">
+      <c r="H33" s="51"/>
+      <c r="I33" s="52">
         <v>43665</v>
       </c>
-      <c r="J33" s="54" t="s">
+      <c r="J33" s="41" t="s">
         <v>257</v>
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="54" t="s">
+      <c r="E34" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="G34" s="64">
+      <c r="G34" s="51">
         <v>43665</v>
       </c>
-      <c r="H34" s="64"/>
-      <c r="I34" s="62">
+      <c r="H34" s="51"/>
+      <c r="I34" s="49">
         <v>43665</v>
       </c>
-      <c r="J34" s="54" t="s">
+      <c r="J34" s="41" t="s">
         <v>260</v>
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="54" t="s">
+      <c r="E35" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="51">
         <v>43665</v>
       </c>
-      <c r="H35" s="64"/>
-      <c r="I35" s="65">
+      <c r="H35" s="51"/>
+      <c r="I35" s="52">
         <v>43665</v>
       </c>
-      <c r="J35" s="54" t="s">
+      <c r="J35" s="41" t="s">
         <v>262</v>
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="54" t="s">
+      <c r="E36" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="G36" s="64">
+      <c r="G36" s="51">
         <v>43665</v>
       </c>
-      <c r="H36" s="64"/>
-      <c r="I36" s="65">
+      <c r="H36" s="51"/>
+      <c r="I36" s="52">
         <v>43665</v>
       </c>
-      <c r="J36" s="54" t="s">
+      <c r="J36" s="41" t="s">
         <v>263</v>
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="41" t="s">
         <v>258</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="54" t="s">
+      <c r="E37" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="G37" s="64">
+      <c r="G37" s="51">
         <v>43665</v>
       </c>
-      <c r="H37" s="64"/>
-      <c r="I37" s="65">
+      <c r="H37" s="51"/>
+      <c r="I37" s="52">
         <v>43665</v>
       </c>
-      <c r="J37" s="54" t="s">
+      <c r="J37" s="41" t="s">
         <v>265</v>
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="54" t="s">
+      <c r="E38" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="64">
+      <c r="G38" s="51">
         <v>43665</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="65">
+      <c r="H38" s="51"/>
+      <c r="I38" s="52">
         <v>43665</v>
       </c>
-      <c r="J38" s="54" t="s">
+      <c r="J38" s="41" t="s">
         <v>267</v>
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:14" ht="31.2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="54" t="s">
+      <c r="E39" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="G39" s="64">
+      <c r="G39" s="51">
         <v>43665</v>
       </c>
-      <c r="H39" s="64"/>
-      <c r="I39" s="65">
+      <c r="H39" s="51"/>
+      <c r="I39" s="52">
         <v>43665</v>
       </c>
-      <c r="J39" s="54" t="s">
+      <c r="J39" s="41" t="s">
         <v>269</v>
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="41" t="s">
         <v>270</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="54" t="s">
+      <c r="E40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="52">
         <v>43712</v>
       </c>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65">
+      <c r="H40" s="52"/>
+      <c r="I40" s="52">
         <v>43714</v>
       </c>
-      <c r="J40" s="54" t="s">
+      <c r="J40" s="41" t="s">
         <v>272</v>
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="41" t="s">
         <v>273</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="54" t="s">
+      <c r="E41" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="52">
         <v>43712</v>
       </c>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65">
+      <c r="H41" s="52"/>
+      <c r="I41" s="52">
         <v>43715</v>
       </c>
-      <c r="J41" s="54" t="s">
+      <c r="J41" s="41" t="s">
         <v>275</v>
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="54" t="s">
+      <c r="E42" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="64">
+      <c r="G42" s="51">
         <v>43734</v>
       </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65">
+      <c r="H42" s="51"/>
+      <c r="I42" s="52">
         <v>43734</v>
       </c>
-      <c r="J42" s="54" t="s">
+      <c r="J42" s="41" t="s">
         <v>278</v>
       </c>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="54">
+    <row r="43" spans="1:14" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="41">
         <v>41</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="64">
+      <c r="G43" s="51">
         <v>43765</v>
       </c>
-      <c r="H43" s="64"/>
-      <c r="I43" s="65">
+      <c r="H43" s="51"/>
+      <c r="I43" s="52">
         <v>43768</v>
       </c>
-      <c r="J43" s="54" t="s">
+      <c r="J43" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="K43" s="54"/>
-    </row>
-    <row r="44" spans="1:14" ht="16.8" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K43" s="41"/>
+    </row>
+    <row r="44" spans="1:14" ht="16.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>42</v>
       </c>
@@ -7784,13 +7782,13 @@
         <v>43739</v>
       </c>
       <c r="H44" s="20"/>
-      <c r="I44" s="67"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="19" t="s">
         <v>285</v>
       </c>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:14" ht="19.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="19.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -7820,7 +7818,7 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
     </row>
-    <row r="46" spans="1:14" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -7852,7 +7850,7 @@
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>45</v>
       </c>
@@ -7881,7 +7879,7 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" ht="34.799999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="34.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>46</v>
       </c>
@@ -7908,7 +7906,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>47</v>
       </c>
@@ -7930,17 +7928,17 @@
       <c r="G49" s="10">
         <v>43838</v>
       </c>
-      <c r="H49" s="89">
+      <c r="H49" s="76">
         <v>43843</v>
       </c>
-      <c r="I49" s="89">
+      <c r="I49" s="76">
         <v>43843</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>48</v>
       </c>
@@ -7969,7 +7967,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>49</v>
       </c>
@@ -7998,7 +7996,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>50</v>
       </c>
@@ -8027,7 +8025,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>51</v>
       </c>
@@ -8056,7 +8054,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>52</v>
       </c>
@@ -8085,7 +8083,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>53</v>
       </c>
@@ -8114,7 +8112,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>54</v>
       </c>
@@ -8143,7 +8141,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>55</v>
       </c>
@@ -8172,7 +8170,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>56</v>
       </c>
@@ -8195,7 +8193,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>57</v>
       </c>
